--- a/data/hotels_by_city/Houston/Houston_shard_11.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_11.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="211">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56110-d73395-Reviews-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
   </si>
   <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Americas-Best-Value-Inn-Suites-LaPorte-Houston.h43243.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,515 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r416159610-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>56110</t>
+  </si>
+  <si>
+    <t>73395</t>
+  </si>
+  <si>
+    <t>416159610</t>
+  </si>
+  <si>
+    <t>09/08/2016</t>
+  </si>
+  <si>
+    <t>Quick get away</t>
+  </si>
+  <si>
+    <t>It was a great stay hotel room was nice and clean no problem parking was great no loud noise perfect for family</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r381749542-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>381749542</t>
+  </si>
+  <si>
+    <t>06/11/2016</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r349547750-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>349547750</t>
+  </si>
+  <si>
+    <t>02/20/2016</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r325269170-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>325269170</t>
+  </si>
+  <si>
+    <t>11/08/2015</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>The couple running the place were very nice, respectful and helpful.I will stay there again if I travel to La Port Tx. Clean and well maintained property as well.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r291077269-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>291077269</t>
+  </si>
+  <si>
+    <t>07/21/2015</t>
+  </si>
+  <si>
+    <t>Room was clean and staff were friendly.  Would have liked a...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room was clean and staff were friendly.  Would have liked a little more variety for the breakfast spread; bagels/Danish would have been nice </t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r260821379-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>260821379</t>
+  </si>
+  <si>
+    <t>03/20/2015</t>
+  </si>
+  <si>
+    <t>If I can give zero I would.  Worst Hotel ever, unprofessional rude staff.</t>
+  </si>
+  <si>
+    <t>We checked in at around 9 p.m. with little kids with asthma and asked for non-smoking room.  The room they gave had very strong cigarette smell so we went to front desk.  They couldn't give us a non-smoking room so we had to leave didn't apologize for it.  Before we left we checked our bank account online and found out they charged us TWICE for the room that we didn't even used but gave us a lesser amount for refund.  We went back to the front desk and complained,  the staff together with an older gentleman finally gave us the right amount of refund, we expressed how displeased we are at their service for giving us smoking room and double charging us and giving wrong refund amount.  They NEVER apologized for their mistakes and just told us mistakes happens, I said yah that is too many mistake for 1 transaction.  They need to get training for costumer service and learn how to compute.  Do not go to this facility!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>We checked in at around 9 p.m. with little kids with asthma and asked for non-smoking room.  The room they gave had very strong cigarette smell so we went to front desk.  They couldn't give us a non-smoking room so we had to leave didn't apologize for it.  Before we left we checked our bank account online and found out they charged us TWICE for the room that we didn't even used but gave us a lesser amount for refund.  We went back to the front desk and complained,  the staff together with an older gentleman finally gave us the right amount of refund, we expressed how displeased we are at their service for giving us smoking room and double charging us and giving wrong refund amount.  They NEVER apologized for their mistakes and just told us mistakes happens, I said yah that is too many mistake for 1 transaction.  They need to get training for costumer service and learn how to compute.  Do not go to this facility!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r254086549-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>254086549</t>
+  </si>
+  <si>
+    <t>02/14/2015</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r246739436-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>246739436</t>
+  </si>
+  <si>
+    <t>12/31/2014</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Nice place to stay and relax. Would highly recommend to anyone to stay there. Staff was very friendly.</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r242316617-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>242316617</t>
+  </si>
+  <si>
+    <t>12/01/2014</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r211014724-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>211014724</t>
+  </si>
+  <si>
+    <t>06/18/2014</t>
+  </si>
+  <si>
+    <t>Needs some cleaning and some repairs.</t>
+  </si>
+  <si>
+    <t>We stayed there due to my husband's points thru work. Even though it is in a great location, not far from sylvan Beach, or the San Juancito monument and The Texas Battleship, I would not go back. Our room had very dirty walls, carpets and base boards. We had one section of the baseboards just hanging off. There was so much noise from other people staying there that I could not get much sleep. I know it is not the managements fault but it is just that the walls are pretty thin. The person who worked the registration at check in was nice. The gentleman who worked the registration and breakfast during Father's Day was very nice and polite.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>We stayed there due to my husband's points thru work. Even though it is in a great location, not far from sylvan Beach, or the San Juancito monument and The Texas Battleship, I would not go back. Our room had very dirty walls, carpets and base boards. We had one section of the baseboards just hanging off. There was so much noise from other people staying there that I could not get much sleep. I know it is not the managements fault but it is just that the walls are pretty thin. The person who worked the registration at check in was nice. The gentleman who worked the registration and breakfast during Father's Day was very nice and polite.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r203533105-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>203533105</t>
+  </si>
+  <si>
+    <t>04/30/2014</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r202235120-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>202235120</t>
+  </si>
+  <si>
+    <t>04/22/2014</t>
+  </si>
+  <si>
+    <t>Run away as fast as you can....</t>
+  </si>
+  <si>
+    <t>I booked this room at $42.00 per night plus tax through a points program via my Mastercard for my son and me while visiting family in the area.  I pre-paid for the room and presented a voucher upon check-in.  The young girl behind the counter did not know what to do with the voucher and we experienced some confusion regarding how to use it.  
+The Days Inn is more like a two-story motel, where you drive up to your room and enter from the outside.  It was right next to the busy 146 freeway and very noisy.  I knew we had made a mistake as soon as I looked around the parking lot and caught a glimpse of the clientele.  It became quite apparent that this is an extended stay hotel for blue-collar workers in the area.  The parking lot was full of big muddy trucks and peculiar looking clientele stomping around in big dirty boots.  In fact, several men were using the parking lot as a place to change the oil and fix a flat tire.  Really?
+The room was extremely tired and run-down and I felt like we had just walked back into 1980.  The tube TV didn't work and the fridge and microwave were mustard yellow and appeared to be 20-years old.  While the room was fairly clean, the furniture was very worn.  Don't walk on the carpet in your bare feet.  Gross.  Bed was uncomfortable and...I booked this room at $42.00 per night plus tax through a points program via my Mastercard for my son and me while visiting family in the area.  I pre-paid for the room and presented a voucher upon check-in.  The young girl behind the counter did not know what to do with the voucher and we experienced some confusion regarding how to use it.  The Days Inn is more like a two-story motel, where you drive up to your room and enter from the outside.  It was right next to the busy 146 freeway and very noisy.  I knew we had made a mistake as soon as I looked around the parking lot and caught a glimpse of the clientele.  It became quite apparent that this is an extended stay hotel for blue-collar workers in the area.  The parking lot was full of big muddy trucks and peculiar looking clientele stomping around in big dirty boots.  In fact, several men were using the parking lot as a place to change the oil and fix a flat tire.  Really?The room was extremely tired and run-down and I felt like we had just walked back into 1980.  The tube TV didn't work and the fridge and microwave were mustard yellow and appeared to be 20-years old.  While the room was fairly clean, the furniture was very worn.  Don't walk on the carpet in your bare feet.  Gross.  Bed was uncomfortable and sheets and comforter had cigarette burn holes.  Very disgusted.  I didn't sleep at all the first night, as I didn't feel safe.  The door didn't seal well and I could see straight outside.  I didn't trust the lock.We were slated to stay a total of four nights, but we checked out the next day.  The gentleman at the front desk refused to give me any kind of refund for the remaining nights.  He asked why we were departing early and I told him I didn't feel safe here with my 10-year old son.I later called my credit card who insisted on contacting Days Inn to see if they could get a refund for me.  I did receive a very small refund, barely a nights stay.  There are plenty other new options in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>I booked this room at $42.00 per night plus tax through a points program via my Mastercard for my son and me while visiting family in the area.  I pre-paid for the room and presented a voucher upon check-in.  The young girl behind the counter did not know what to do with the voucher and we experienced some confusion regarding how to use it.  
+The Days Inn is more like a two-story motel, where you drive up to your room and enter from the outside.  It was right next to the busy 146 freeway and very noisy.  I knew we had made a mistake as soon as I looked around the parking lot and caught a glimpse of the clientele.  It became quite apparent that this is an extended stay hotel for blue-collar workers in the area.  The parking lot was full of big muddy trucks and peculiar looking clientele stomping around in big dirty boots.  In fact, several men were using the parking lot as a place to change the oil and fix a flat tire.  Really?
+The room was extremely tired and run-down and I felt like we had just walked back into 1980.  The tube TV didn't work and the fridge and microwave were mustard yellow and appeared to be 20-years old.  While the room was fairly clean, the furniture was very worn.  Don't walk on the carpet in your bare feet.  Gross.  Bed was uncomfortable and...I booked this room at $42.00 per night plus tax through a points program via my Mastercard for my son and me while visiting family in the area.  I pre-paid for the room and presented a voucher upon check-in.  The young girl behind the counter did not know what to do with the voucher and we experienced some confusion regarding how to use it.  The Days Inn is more like a two-story motel, where you drive up to your room and enter from the outside.  It was right next to the busy 146 freeway and very noisy.  I knew we had made a mistake as soon as I looked around the parking lot and caught a glimpse of the clientele.  It became quite apparent that this is an extended stay hotel for blue-collar workers in the area.  The parking lot was full of big muddy trucks and peculiar looking clientele stomping around in big dirty boots.  In fact, several men were using the parking lot as a place to change the oil and fix a flat tire.  Really?The room was extremely tired and run-down and I felt like we had just walked back into 1980.  The tube TV didn't work and the fridge and microwave were mustard yellow and appeared to be 20-years old.  While the room was fairly clean, the furniture was very worn.  Don't walk on the carpet in your bare feet.  Gross.  Bed was uncomfortable and sheets and comforter had cigarette burn holes.  Very disgusted.  I didn't sleep at all the first night, as I didn't feel safe.  The door didn't seal well and I could see straight outside.  I didn't trust the lock.We were slated to stay a total of four nights, but we checked out the next day.  The gentleman at the front desk refused to give me any kind of refund for the remaining nights.  He asked why we were departing early and I told him I didn't feel safe here with my 10-year old son.I later called my credit card who insisted on contacting Days Inn to see if they could get a refund for me.  I did receive a very small refund, barely a nights stay.  There are plenty other new options in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r188957177-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>188957177</t>
+  </si>
+  <si>
+    <t>12/29/2013</t>
+  </si>
+  <si>
+    <t>Excellent customer service</t>
+  </si>
+  <si>
+    <t>We had a group of 10 (5 couples) staying overnight at this motel, on our way to a Caribbean cruise. The accommodations were adequate and the rooms were very clean, quiet, and as expected for a Days Inn establishment. There weren't any restaurants within walking distance, however we had food delivered from a local place and the staff allowed us to take over the breakfast area so we could have our meal together as a group. Breakfast was they typical continental breakfast with waffles. However, the outstanding item to note was the customer service of this motel. The owners of this establishment were very accommodating for a large group as ours. The owners and their family went out of their way to transport all of my party, along with our baggage to the cruise port the next morning. All this occurred during the cold snap in the early part of December! I believe that customer service outranks any of the other amenities and I would recommend this motel to anyone wishing to stay in La Porte awaiting a cruise out of Houston. I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>We had a group of 10 (5 couples) staying overnight at this motel, on our way to a Caribbean cruise. The accommodations were adequate and the rooms were very clean, quiet, and as expected for a Days Inn establishment. There weren't any restaurants within walking distance, however we had food delivered from a local place and the staff allowed us to take over the breakfast area so we could have our meal together as a group. Breakfast was they typical continental breakfast with waffles. However, the outstanding item to note was the customer service of this motel. The owners of this establishment were very accommodating for a large group as ours. The owners and their family went out of their way to transport all of my party, along with our baggage to the cruise port the next morning. All this occurred during the cold snap in the early part of December! I believe that customer service outranks any of the other amenities and I would recommend this motel to anyone wishing to stay in La Porte awaiting a cruise out of Houston. I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r188805069-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>188805069</t>
+  </si>
+  <si>
+    <t>12/28/2013</t>
+  </si>
+  <si>
+    <t>A Wyndham Hotel in need of TLC</t>
+  </si>
+  <si>
+    <t>According to the GPS the hotel is located in the middle of an expressway intersection. Take heed. Found the hotel about two blocks north, fairly new within the past 3 years but already looking a bit used. The front desk was very pleased that we were getting a Jacuzzi room and we were surprised because of the cost of the room was very reasonable. A traveling companion had made the reservations for 4 couples so we had no idea what we were getting. The room was large and was apparently a handicap accessible room, supposedly. The room was large, the furniture was pretty much trashed with missing or dangling handles on the dresser drawers. The wifi was intermittent, a nice TV. You needed a ladder to get in the slab of granite they called a bed. The bath was interesting and did have a nice shower head with lots of water although the paint was pealing and the grout was coming up around the tub. There is no way a handicapped person could get in the bathroom, the door was stuck on the carpet and would not open completely.  We did not try the Jacuzzi, it did not look clean. Thank God we were there only one night waiting to get aboard a cruise ship.  The management did promptly handle one problem, a guest parked a truck and motorcycle trailer in front of the rooms, taking up 6 parking spaces....According to the GPS the hotel is located in the middle of an expressway intersection. Take heed. Found the hotel about two blocks north, fairly new within the past 3 years but already looking a bit used. The front desk was very pleased that we were getting a Jacuzzi room and we were surprised because of the cost of the room was very reasonable. A traveling companion had made the reservations for 4 couples so we had no idea what we were getting. The room was large and was apparently a handicap accessible room, supposedly. The room was large, the furniture was pretty much trashed with missing or dangling handles on the dresser drawers. The wifi was intermittent, a nice TV. You needed a ladder to get in the slab of granite they called a bed. The bath was interesting and did have a nice shower head with lots of water although the paint was pealing and the grout was coming up around the tub. There is no way a handicapped person could get in the bathroom, the door was stuck on the carpet and would not open completely.  We did not try the Jacuzzi, it did not look clean. Thank God we were there only one night waiting to get aboard a cruise ship.  The management did promptly handle one problem, a guest parked a truck and motorcycle trailer in front of the rooms, taking up 6 parking spaces.  Otherwise we did not complain abut the room, just left it alone and will not stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>According to the GPS the hotel is located in the middle of an expressway intersection. Take heed. Found the hotel about two blocks north, fairly new within the past 3 years but already looking a bit used. The front desk was very pleased that we were getting a Jacuzzi room and we were surprised because of the cost of the room was very reasonable. A traveling companion had made the reservations for 4 couples so we had no idea what we were getting. The room was large and was apparently a handicap accessible room, supposedly. The room was large, the furniture was pretty much trashed with missing or dangling handles on the dresser drawers. The wifi was intermittent, a nice TV. You needed a ladder to get in the slab of granite they called a bed. The bath was interesting and did have a nice shower head with lots of water although the paint was pealing and the grout was coming up around the tub. There is no way a handicapped person could get in the bathroom, the door was stuck on the carpet and would not open completely.  We did not try the Jacuzzi, it did not look clean. Thank God we were there only one night waiting to get aboard a cruise ship.  The management did promptly handle one problem, a guest parked a truck and motorcycle trailer in front of the rooms, taking up 6 parking spaces....According to the GPS the hotel is located in the middle of an expressway intersection. Take heed. Found the hotel about two blocks north, fairly new within the past 3 years but already looking a bit used. The front desk was very pleased that we were getting a Jacuzzi room and we were surprised because of the cost of the room was very reasonable. A traveling companion had made the reservations for 4 couples so we had no idea what we were getting. The room was large and was apparently a handicap accessible room, supposedly. The room was large, the furniture was pretty much trashed with missing or dangling handles on the dresser drawers. The wifi was intermittent, a nice TV. You needed a ladder to get in the slab of granite they called a bed. The bath was interesting and did have a nice shower head with lots of water although the paint was pealing and the grout was coming up around the tub. There is no way a handicapped person could get in the bathroom, the door was stuck on the carpet and would not open completely.  We did not try the Jacuzzi, it did not look clean. Thank God we were there only one night waiting to get aboard a cruise ship.  The management did promptly handle one problem, a guest parked a truck and motorcycle trailer in front of the rooms, taking up 6 parking spaces.  Otherwise we did not complain abut the room, just left it alone and will not stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r185350722-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>185350722</t>
+  </si>
+  <si>
+    <t>11/20/2013</t>
+  </si>
+  <si>
+    <t>The hotel was fine.  The manager was quite anxious...</t>
+  </si>
+  <si>
+    <t>The hotel was fine.  The manager was quite anxious regarding payment.  He jumped to the wrong idea when I first arrived.  His daughter was able to calm him down.   He never did apologize for his anxious behavior.  Oh Well, it was still a great stay.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r171764723-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>171764723</t>
+  </si>
+  <si>
+    <t>08/11/2013</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r170734872-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>170734872</t>
+  </si>
+  <si>
+    <t>08/04/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r170228685-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>170228685</t>
+  </si>
+  <si>
+    <t>07/31/2013</t>
+  </si>
+  <si>
+    <t>Pleasant Surprise</t>
+  </si>
+  <si>
+    <t>Prior to my trip from Tennessee to Texas the week of July 04,2013; I checked the reviews on this hotel.  I developed mixed emotions about this hotel.  Upon arrival, I was greeted courteously and the front desk clerk went out of her way to place me in a ground floor room due to my upcoming race and possible knee issues.  In my nice and clean room, I had some difficulty with my remote.  I called the front desk and inquired about new batteries.  She immediately sent someone to check out the issue and he found the remote was disabled.  He quickly replaced it, apologized for any inconvenience and talked with me for a moment about the planned upgrades for the hotel and his previous trips to Chattanooga. A couple of days into my stay, my door would not lock.  I called the front desk and within 15 minutes, maintenance had diagnosed the problem (just normal wear and tear) and was correcting it.  My door was perfect by the time I returned from a short trip into a neighboring town.  The hotel was quiet and peaceful.  The pool was excellent, housekeeping went above and beyond to meet my needs and the staff was friendly and helpful.  I would recommend this hotel to anyone and will stay here again when I return each year for the Baytown Bud Heatwave race.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Prior to my trip from Tennessee to Texas the week of July 04,2013; I checked the reviews on this hotel.  I developed mixed emotions about this hotel.  Upon arrival, I was greeted courteously and the front desk clerk went out of her way to place me in a ground floor room due to my upcoming race and possible knee issues.  In my nice and clean room, I had some difficulty with my remote.  I called the front desk and inquired about new batteries.  She immediately sent someone to check out the issue and he found the remote was disabled.  He quickly replaced it, apologized for any inconvenience and talked with me for a moment about the planned upgrades for the hotel and his previous trips to Chattanooga. A couple of days into my stay, my door would not lock.  I called the front desk and within 15 minutes, maintenance had diagnosed the problem (just normal wear and tear) and was correcting it.  My door was perfect by the time I returned from a short trip into a neighboring town.  The hotel was quiet and peaceful.  The pool was excellent, housekeeping went above and beyond to meet my needs and the staff was friendly and helpful.  I would recommend this hotel to anyone and will stay here again when I return each year for the Baytown Bud Heatwave race.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r165504371-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>165504371</t>
+  </si>
+  <si>
+    <t>06/27/2013</t>
+  </si>
+  <si>
+    <t>my stay</t>
+  </si>
+  <si>
+    <t>Not enough towels for people booked. Used towels for the pool went to the frony desk to ask for more and was only given 2 towels for 4 people. When room service came they only brought 2 towels and rags every day. Other than that it was great.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r164954647-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>164954647</t>
+  </si>
+  <si>
+    <t>06/23/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r164915527-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>164915527</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r157685048-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>157685048</t>
+  </si>
+  <si>
+    <t>04/14/2013</t>
+  </si>
+  <si>
+    <t>Totally Satisfied!</t>
+  </si>
+  <si>
+    <t>This is my 3rd time staying here for extended times while working in the area. For the money I find this hotel to fit me perfect. Super nice staff and do an excellent job cleaning the room EVERY day! I give this place an A++</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r155855372-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>155855372</t>
+  </si>
+  <si>
+    <t>03/27/2013</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r152607256-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>152607256</t>
+  </si>
+  <si>
+    <t>02/20/2013</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r132617998-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>132617998</t>
+  </si>
+  <si>
+    <t>06/23/2012</t>
+  </si>
+  <si>
+    <t>Shocker!</t>
+  </si>
+  <si>
+    <t>If you're down in Houston, Texas, please do yourself a favor and do not stay at the Days Inn La Porte...
+Here is why: the service is appalling and puts this business straight onto the waiting list for going out of business. The check-in process didnt included the slightest bit of courtesy or friendliness, the doorkey handed to us didnt work and had to be re-programmed (I would rate SERVICE as zero - unfortunately tripadvisor's lowest score is a 1). The sheets were dirty. There was dirt in the corner, we found an old sandwich package next to the bed (yuck) and there was a used dental guard in the bathroom (super yuck). Then overnight, someone stole stuff from my motorcycle right in front of our room (lucky for the person that the alarm didnt go off - I would have been quick off the mark). The surrounding are is best described as 'heavy industrial' - we counted about 3 oil refineries next door and at lest the same about of chemical plants.
+The whole purpose of this trip was to go and see the Houston Space Center - which was a disappointment in itself, so overall we cant wait to continue our trip (if there are still wheel on our bikes tomorrow morning). So, you've been warned. Stay here at your own risk. The only good thing is the low rate - 50 bucks buys you a room per...If you're down in Houston, Texas, please do yourself a favor and do not stay at the Days Inn La Porte...Here is why: the service is appalling and puts this business straight onto the waiting list for going out of business. The check-in process didnt included the slightest bit of courtesy or friendliness, the doorkey handed to us didnt work and had to be re-programmed (I would rate SERVICE as zero - unfortunately tripadvisor's lowest score is a 1). The sheets were dirty. There was dirt in the corner, we found an old sandwich package next to the bed (yuck) and there was a used dental guard in the bathroom (super yuck). Then overnight, someone stole stuff from my motorcycle right in front of our room (lucky for the person that the alarm didnt go off - I would have been quick off the mark). The surrounding are is best described as 'heavy industrial' - we counted about 3 oil refineries next door and at lest the same about of chemical plants.The whole purpose of this trip was to go and see the Houston Space Center - which was a disappointment in itself, so overall we cant wait to continue our trip (if there are still wheel on our bikes tomorrow morning). So, you've been warned. Stay here at your own risk. The only good thing is the low rate - 50 bucks buys you a room per night... but then again, is it really worth it? Me thinks not...MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>If you're down in Houston, Texas, please do yourself a favor and do not stay at the Days Inn La Porte...
+Here is why: the service is appalling and puts this business straight onto the waiting list for going out of business. The check-in process didnt included the slightest bit of courtesy or friendliness, the doorkey handed to us didnt work and had to be re-programmed (I would rate SERVICE as zero - unfortunately tripadvisor's lowest score is a 1). The sheets were dirty. There was dirt in the corner, we found an old sandwich package next to the bed (yuck) and there was a used dental guard in the bathroom (super yuck). Then overnight, someone stole stuff from my motorcycle right in front of our room (lucky for the person that the alarm didnt go off - I would have been quick off the mark). The surrounding are is best described as 'heavy industrial' - we counted about 3 oil refineries next door and at lest the same about of chemical plants.
+The whole purpose of this trip was to go and see the Houston Space Center - which was a disappointment in itself, so overall we cant wait to continue our trip (if there are still wheel on our bikes tomorrow morning). So, you've been warned. Stay here at your own risk. The only good thing is the low rate - 50 bucks buys you a room per...If you're down in Houston, Texas, please do yourself a favor and do not stay at the Days Inn La Porte...Here is why: the service is appalling and puts this business straight onto the waiting list for going out of business. The check-in process didnt included the slightest bit of courtesy or friendliness, the doorkey handed to us didnt work and had to be re-programmed (I would rate SERVICE as zero - unfortunately tripadvisor's lowest score is a 1). The sheets were dirty. There was dirt in the corner, we found an old sandwich package next to the bed (yuck) and there was a used dental guard in the bathroom (super yuck). Then overnight, someone stole stuff from my motorcycle right in front of our room (lucky for the person that the alarm didnt go off - I would have been quick off the mark). The surrounding are is best described as 'heavy industrial' - we counted about 3 oil refineries next door and at lest the same about of chemical plants.The whole purpose of this trip was to go and see the Houston Space Center - which was a disappointment in itself, so overall we cant wait to continue our trip (if there are still wheel on our bikes tomorrow morning). So, you've been warned. Stay here at your own risk. The only good thing is the low rate - 50 bucks buys you a room per night... but then again, is it really worth it? Me thinks not...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r132284189-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>132284189</t>
+  </si>
+  <si>
+    <t>06/18/2012</t>
+  </si>
+  <si>
+    <t>The dog owner took the dog but did not take his waste the dog put out</t>
+  </si>
+  <si>
+    <t>We had three rooms for a family trip the room we found the dog poop had a smell when we first got there we thought it may be because the air had not been running and the room was closed up turn air on and go out to dinner.Next day we get a early start and come back and the smell is still in the room so we start the hunt for the smell we found that a dog pooped under the lamp table we go to the front desk and tell the person what we found he did not believe us we asked him to come to the room and see it for his self  he came and seen it .I asked the room was clean to day was it vacuum he told me yes I told him we do not have a dog with us and the poop is old and dry can he have a maid come in and clean it up and just spray some Lysol on the spot .We had to clean it  up and we did not ask for any money back that is why I am posting thisMoreShow less</t>
+  </si>
+  <si>
+    <t>We had three rooms for a family trip the room we found the dog poop had a smell when we first got there we thought it may be because the air had not been running and the room was closed up turn air on and go out to dinner.Next day we get a early start and come back and the smell is still in the room so we start the hunt for the smell we found that a dog pooped under the lamp table we go to the front desk and tell the person what we found he did not believe us we asked him to come to the room and see it for his self  he came and seen it .I asked the room was clean to day was it vacuum he told me yes I told him we do not have a dog with us and the poop is old and dry can he have a maid come in and clean it up and just spray some Lysol on the spot .We had to clean it  up and we did not ask for any money back that is why I am posting thisMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r121560336-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>121560336</t>
+  </si>
+  <si>
+    <t>12/09/2011</t>
+  </si>
+  <si>
+    <t>Badly Managed, and Kept</t>
+  </si>
+  <si>
+    <t>We did not enjoy our stay one bit, the carpet left our feet black as the mold in the bathroom. The staff on duty did change us but our feet was still dark in the other room. We slept with our shoes on. Also the handrails and walkway outside has the musky smell of beer and even has broken beer glass everywhere. The staff also was very hard to understand due to accents and gave us awkward looks as we ate our breakfast.Would not recommend, especially with Family....</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r117057148-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>117057148</t>
+  </si>
+  <si>
+    <t>08/21/2011</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>After visiting the USS Texas, we did not feel like taking a long drive anymore, so we decided to look for a hotel in La Porte! We found a coupon of the Days Inn in a room saver magazine, and we decided to give it a try!What a great choice! This hotel is an ex Best Western, and it shows! The rooms are very spacious, sparkling clean, and the beds are great! And the price ($57) could not be beat!Highly recommended!!</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r109507761-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>109507761</t>
+  </si>
+  <si>
+    <t>05/23/2011</t>
+  </si>
+  <si>
+    <t>Great room at a great price.</t>
+  </si>
+  <si>
+    <t>We had originally reserved a room with another hotel, but were very disappointed when we arrived and immediately cancelled our reservation.  However, we were pleasantly surprised to find a much better room at a much better price at this hotel.  We would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r108393980-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>108393980</t>
+  </si>
+  <si>
+    <t>05/15/2011</t>
+  </si>
+  <si>
+    <t>Great Price!</t>
+  </si>
+  <si>
+    <t>The beds were awesome.  Slept like a baby.  Was kinda scary because of the price you just never know what your going to get but I will say I would stay there again.  Breakfast says hot and that means typicall waffles and oatmeal.  Wifi worked half the time.  Pool was ok, nothing impressive.  Overall I say great place for a great price.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1050,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1082,2013 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s"/>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>2</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>87</v>
+      </c>
+      <c r="O8" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" t="s">
+        <v>92</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>93</v>
+      </c>
+      <c r="O9" t="s">
+        <v>94</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" t="s">
+        <v>103</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>104</v>
+      </c>
+      <c r="O11" t="s">
+        <v>94</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>107</v>
+      </c>
+      <c r="J12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>109</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>111</v>
+      </c>
+      <c r="J13" t="s">
+        <v>112</v>
+      </c>
+      <c r="K13" t="s">
+        <v>113</v>
+      </c>
+      <c r="L13" t="s">
+        <v>114</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>115</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>118</v>
+      </c>
+      <c r="J14" t="s">
+        <v>119</v>
+      </c>
+      <c r="K14" t="s">
+        <v>120</v>
+      </c>
+      <c r="L14" t="s">
+        <v>121</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>122</v>
+      </c>
+      <c r="O14" t="s">
+        <v>123</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>126</v>
+      </c>
+      <c r="J15" t="s">
+        <v>127</v>
+      </c>
+      <c r="K15" t="s">
+        <v>128</v>
+      </c>
+      <c r="L15" t="s">
+        <v>129</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>122</v>
+      </c>
+      <c r="O15" t="s">
+        <v>123</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>132</v>
+      </c>
+      <c r="J16" t="s">
+        <v>133</v>
+      </c>
+      <c r="K16" t="s">
+        <v>134</v>
+      </c>
+      <c r="L16" t="s">
+        <v>135</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>136</v>
+      </c>
+      <c r="O16" t="s">
+        <v>64</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>138</v>
+      </c>
+      <c r="J17" t="s">
+        <v>139</v>
+      </c>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s"/>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>140</v>
+      </c>
+      <c r="O17" t="s">
+        <v>64</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>142</v>
+      </c>
+      <c r="J18" t="s">
+        <v>143</v>
+      </c>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s"/>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>140</v>
+      </c>
+      <c r="O18" t="s">
+        <v>94</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>145</v>
+      </c>
+      <c r="J19" t="s">
+        <v>146</v>
+      </c>
+      <c r="K19" t="s">
+        <v>147</v>
+      </c>
+      <c r="L19" t="s">
+        <v>148</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>149</v>
+      </c>
+      <c r="O19" t="s">
+        <v>150</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>152</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>153</v>
+      </c>
+      <c r="J20" t="s">
+        <v>154</v>
+      </c>
+      <c r="K20" t="s">
+        <v>155</v>
+      </c>
+      <c r="L20" t="s">
+        <v>156</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>157</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>158</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>159</v>
+      </c>
+      <c r="J21" t="s">
+        <v>160</v>
+      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s">
+        <v>57</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>157</v>
+      </c>
+      <c r="O21" t="s">
+        <v>64</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>161</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>162</v>
+      </c>
+      <c r="J22" t="s">
+        <v>160</v>
+      </c>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s"/>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>157</v>
+      </c>
+      <c r="O22" t="s">
+        <v>150</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>163</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>164</v>
+      </c>
+      <c r="J23" t="s">
+        <v>165</v>
+      </c>
+      <c r="K23" t="s">
+        <v>166</v>
+      </c>
+      <c r="L23" t="s">
+        <v>167</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>168</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>169</v>
+      </c>
+      <c r="J24" t="s">
+        <v>170</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s"/>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>171</v>
+      </c>
+      <c r="O24" t="s">
+        <v>64</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>172</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>173</v>
+      </c>
+      <c r="J25" t="s">
+        <v>174</v>
+      </c>
+      <c r="K25" t="s"/>
+      <c r="L25" t="s"/>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>175</v>
+      </c>
+      <c r="O25" t="s">
+        <v>94</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>176</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>177</v>
+      </c>
+      <c r="J26" t="s">
+        <v>178</v>
+      </c>
+      <c r="K26" t="s">
+        <v>179</v>
+      </c>
+      <c r="L26" t="s">
+        <v>180</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>181</v>
+      </c>
+      <c r="O26" t="s">
+        <v>94</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>183</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>184</v>
+      </c>
+      <c r="J27" t="s">
+        <v>185</v>
+      </c>
+      <c r="K27" t="s">
+        <v>186</v>
+      </c>
+      <c r="L27" t="s">
+        <v>187</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>181</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>189</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>190</v>
+      </c>
+      <c r="J28" t="s">
+        <v>191</v>
+      </c>
+      <c r="K28" t="s">
+        <v>192</v>
+      </c>
+      <c r="L28" t="s">
+        <v>193</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>195</v>
+      </c>
+      <c r="J29" t="s">
+        <v>196</v>
+      </c>
+      <c r="K29" t="s">
+        <v>197</v>
+      </c>
+      <c r="L29" t="s">
+        <v>198</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>199</v>
+      </c>
+      <c r="O29" t="s">
+        <v>123</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>200</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>201</v>
+      </c>
+      <c r="J30" t="s">
+        <v>202</v>
+      </c>
+      <c r="K30" t="s">
+        <v>203</v>
+      </c>
+      <c r="L30" t="s">
+        <v>204</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>205</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>206</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>207</v>
+      </c>
+      <c r="J31" t="s">
+        <v>208</v>
+      </c>
+      <c r="K31" t="s">
+        <v>209</v>
+      </c>
+      <c r="L31" t="s">
+        <v>210</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>205</v>
+      </c>
+      <c r="O31" t="s">
+        <v>123</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_11.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_11.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="317">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,57 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r464093853-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>56110</t>
+  </si>
+  <si>
+    <t>73395</t>
+  </si>
+  <si>
+    <t>464093853</t>
+  </si>
+  <si>
+    <t>03/02/2017</t>
+  </si>
+  <si>
+    <t>Its a roof</t>
+  </si>
+  <si>
+    <t>I gave this 2 stars because the front desk help was friendly and well, hey it was a roof over a heads.  However, it was deep down dirty.  We didn't dare walk on the floor, the headboard had some sort of stickyness from people repeatedly propped their heads up against it (so gross). The sheets had burn holes in them even though it was supposed to be non-smoking.  The cleaning lady, bless her heart, would not give me clean towels...I traded her the dirty towels and she kept saying "I come by later"; after 3 x of this I had to emphasis that I needed them now.  We also asked several times for an extra pillow and the same thing happened, she kept asking "you don't have pillows?, I come by later.There were other options available, but we needed a place to stay under $100 as we got stuck in this godforsaken place for the whole weekend.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>I gave this 2 stars because the front desk help was friendly and well, hey it was a roof over a heads.  However, it was deep down dirty.  We didn't dare walk on the floor, the headboard had some sort of stickyness from people repeatedly propped their heads up against it (so gross). The sheets had burn holes in them even though it was supposed to be non-smoking.  The cleaning lady, bless her heart, would not give me clean towels...I traded her the dirty towels and she kept saying "I come by later"; after 3 x of this I had to emphasis that I needed them now.  We also asked several times for an extra pillow and the same thing happened, she kept asking "you don't have pillows?, I come by later.There were other options available, but we needed a place to stay under $100 as we got stuck in this godforsaken place for the whole weekend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r444318229-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>444318229</t>
+  </si>
+  <si>
+    <t>12/14/2016</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r416159610-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
   </si>
   <si>
-    <t>56110</t>
-  </si>
-  <si>
-    <t>73395</t>
-  </si>
-  <si>
     <t>416159610</t>
   </si>
   <si>
@@ -210,7 +249,40 @@
     <t>February 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r338675557-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>338675557</t>
+  </si>
+  <si>
+    <t>01/09/2016</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r335190176-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>335190176</t>
+  </si>
+  <si>
+    <t>12/27/2015</t>
+  </si>
+  <si>
+    <t>Would NOT recommend!!</t>
+  </si>
+  <si>
+    <t>Stayed the night to pick up family from cruise. I dare say this was a joke of a hotel. There were holes in the shower, outlets were either broke and hanging out of walls. Light would flicker when turned off. One simply did not work. The floors and bed were sticky and damp. Chair was broke in room.The breakfast if you can call it that consisted of waffles and cereal only. The bread had been left out from the day before if not longer. No fresh fruit etc.. To top it off had a stranger knock on the door looking for a room and then bummed a cigarette from my son while the whole time she tried looking in the room. Made myself and daughter very uncomfortable. Security latch on door was broke as well. Only positive was they had coffee. While the room was in such disrepair, owner proudly sported a top end BMW. Looks like we know where the money is going to and it is not in to fixing the hotel to serve their customers better. The Wyndham Group should be ashamed to be affliated with this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Stayed the night to pick up family from cruise. I dare say this was a joke of a hotel. There were holes in the shower, outlets were either broke and hanging out of walls. Light would flicker when turned off. One simply did not work. The floors and bed were sticky and damp. Chair was broke in room.The breakfast if you can call it that consisted of waffles and cereal only. The bread had been left out from the day before if not longer. No fresh fruit etc.. To top it off had a stranger knock on the door looking for a room and then bummed a cigarette from my son while the whole time she tried looking in the room. Made myself and daughter very uncomfortable. Security latch on door was broke as well. Only positive was they had coffee. While the room was in such disrepair, owner proudly sported a top end BMW. Looks like we know where the money is going to and it is not in to fixing the hotel to serve their customers better. The Wyndham Group should be ashamed to be affliated with this location.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r325269170-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
@@ -270,6 +342,39 @@
     <t>We checked in at around 9 p.m. with little kids with asthma and asked for non-smoking room.  The room they gave had very strong cigarette smell so we went to front desk.  They couldn't give us a non-smoking room so we had to leave didn't apologize for it.  Before we left we checked our bank account online and found out they charged us TWICE for the room that we didn't even used but gave us a lesser amount for refund.  We went back to the front desk and complained,  the staff together with an older gentleman finally gave us the right amount of refund, we expressed how displeased we are at their service for giving us smoking room and double charging us and giving wrong refund amount.  They NEVER apologized for their mistakes and just told us mistakes happens, I said yah that is too many mistake for 1 transaction.  They need to get training for costumer service and learn how to compute.  Do not go to this facility!!!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r257698392-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>257698392</t>
+  </si>
+  <si>
+    <t>03/04/2015</t>
+  </si>
+  <si>
+    <t>Needs updates but staff is very friendly and accommodating</t>
+  </si>
+  <si>
+    <t>Our family had to stay here for a couple of weeks in July of 2014 while we were waiting for our house to be finished. The rooms are so-so, but they definitely could use some sprucing up. We didn't find any bugs, so that part was good. Overall they really just need some repairs and this would be nice again. The pool is good and the location is great. The reason why I gave it 4 stars instead of 3 is because the staff here does go above and beyond and they seem to care about their guests. It didn't matter if I went in at 8 am or midnight, they were all very courteous and accommodating. Another bonus is that they let you grill food here with your own grill... many motels do not allow it but this was a great feature which helped us alleviate spending so much on food bills.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Our family had to stay here for a couple of weeks in July of 2014 while we were waiting for our house to be finished. The rooms are so-so, but they definitely could use some sprucing up. We didn't find any bugs, so that part was good. Overall they really just need some repairs and this would be nice again. The pool is good and the location is great. The reason why I gave it 4 stars instead of 3 is because the staff here does go above and beyond and they seem to care about their guests. It didn't matter if I went in at 8 am or midnight, they were all very courteous and accommodating. Another bonus is that they let you grill food here with your own grill... many motels do not allow it but this was a great feature which helped us alleviate spending so much on food bills.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r257299223-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>257299223</t>
+  </si>
+  <si>
+    <t>03/02/2015</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r254086549-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -300,9 +405,6 @@
     <t>December 2014</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r242316617-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -313,6 +415,27 @@
   </si>
   <si>
     <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r226110210-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>226110210</t>
+  </si>
+  <si>
+    <t>09/01/2014</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r216496072-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>216496072</t>
+  </si>
+  <si>
+    <t>07/20/2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r211014724-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
@@ -373,6 +496,27 @@
 The room was extremely tired and run-down and I felt like we had just walked back into 1980.  The tube TV didn't work and the fridge and microwave were mustard yellow and appeared to be 20-years old.  While the room was fairly clean, the furniture was very worn.  Don't walk on the carpet in your bare feet.  Gross.  Bed was uncomfortable and...I booked this room at $42.00 per night plus tax through a points program via my Mastercard for my son and me while visiting family in the area.  I pre-paid for the room and presented a voucher upon check-in.  The young girl behind the counter did not know what to do with the voucher and we experienced some confusion regarding how to use it.  The Days Inn is more like a two-story motel, where you drive up to your room and enter from the outside.  It was right next to the busy 146 freeway and very noisy.  I knew we had made a mistake as soon as I looked around the parking lot and caught a glimpse of the clientele.  It became quite apparent that this is an extended stay hotel for blue-collar workers in the area.  The parking lot was full of big muddy trucks and peculiar looking clientele stomping around in big dirty boots.  In fact, several men were using the parking lot as a place to change the oil and fix a flat tire.  Really?The room was extremely tired and run-down and I felt like we had just walked back into 1980.  The tube TV didn't work and the fridge and microwave were mustard yellow and appeared to be 20-years old.  While the room was fairly clean, the furniture was very worn.  Don't walk on the carpet in your bare feet.  Gross.  Bed was uncomfortable and sheets and comforter had cigarette burn holes.  Very disgusted.  I didn't sleep at all the first night, as I didn't feel safe.  The door didn't seal well and I could see straight outside.  I didn't trust the lock.We were slated to stay a total of four nights, but we checked out the next day.  The gentleman at the front desk refused to give me any kind of refund for the remaining nights.  He asked why we were departing early and I told him I didn't feel safe here with my 10-year old son.I later called my credit card who insisted on contacting Days Inn to see if they could get a refund for me.  I did receive a very small refund, barely a nights stay.  There are plenty other new options in the area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r197146505-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>197146505</t>
+  </si>
+  <si>
+    <t>03/12/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r192246874-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>192246874</t>
+  </si>
+  <si>
+    <t>01/27/2014</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r188957177-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -391,9 +535,6 @@
     <t>December 2013</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>We had a group of 10 (5 couples) staying overnight at this motel, on our way to a Caribbean cruise. The accommodations were adequate and the rooms were very clean, quiet, and as expected for a Days Inn establishment. There weren't any restaurants within walking distance, however we had food delivered from a local place and the staff allowed us to take over the breakfast area so we could have our meal together as a group. Breakfast was they typical continental breakfast with waffles. However, the outstanding item to note was the customer service of this motel. The owners of this establishment were very accommodating for a large group as ours. The owners and their family went out of their way to transport all of my party, along with our baggage to the cruise port the next morning. All this occurred during the cold snap in the early part of December! I believe that customer service outranks any of the other amenities and I would recommend this motel to anyone wishing to stay in La Porte awaiting a cruise out of Houston. I would stay here again.More</t>
   </si>
   <si>
@@ -433,6 +574,36 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r185089786-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>185089786</t>
+  </si>
+  <si>
+    <t>11/18/2013</t>
+  </si>
+  <si>
+    <t>Good Place to Stay Pre-cruise</t>
+  </si>
+  <si>
+    <t>We stayed here one night prior to our cruise out of the newly opened Houston Bayport Cruise Terminal. We had requested a ground floor room when we made the reservation and it was ready for us when we arrived at 2:00 p.m. The room was a nice surprise because it had a small sitting area separated from the bedroom. Bed was comfortable, room was clean and towels were plentiful. Several restaurants were within a short driving distance and the cruise terminal was less than 20 minutes away. We didn't eat breakfast but did see that it was kind of standard...juice, milk, waffles, cereal, fruit, and pastries. Value was excellent and I will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here one night prior to our cruise out of the newly opened Houston Bayport Cruise Terminal. We had requested a ground floor room when we made the reservation and it was ready for us when we arrived at 2:00 p.m. The room was a nice surprise because it had a small sitting area separated from the bedroom. Bed was comfortable, room was clean and towels were plentiful. Several restaurants were within a short driving distance and the cruise terminal was less than 20 minutes away. We didn't eat breakfast but did see that it was kind of standard...juice, milk, waffles, cereal, fruit, and pastries. Value was excellent and I will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r173487778-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>173487778</t>
+  </si>
+  <si>
+    <t>08/22/2013</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r171764723-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -442,9 +613,6 @@
     <t>08/11/2013</t>
   </si>
   <si>
-    <t>August 2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r170734872-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -478,6 +646,33 @@
     <t>Prior to my trip from Tennessee to Texas the week of July 04,2013; I checked the reviews on this hotel.  I developed mixed emotions about this hotel.  Upon arrival, I was greeted courteously and the front desk clerk went out of her way to place me in a ground floor room due to my upcoming race and possible knee issues.  In my nice and clean room, I had some difficulty with my remote.  I called the front desk and inquired about new batteries.  She immediately sent someone to check out the issue and he found the remote was disabled.  He quickly replaced it, apologized for any inconvenience and talked with me for a moment about the planned upgrades for the hotel and his previous trips to Chattanooga. A couple of days into my stay, my door would not lock.  I called the front desk and within 15 minutes, maintenance had diagnosed the problem (just normal wear and tear) and was correcting it.  My door was perfect by the time I returned from a short trip into a neighboring town.  The hotel was quiet and peaceful.  The pool was excellent, housekeeping went above and beyond to meet my needs and the staff was friendly and helpful.  I would recommend this hotel to anyone and will stay here again when I return each year for the Baytown Bud Heatwave race.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r166984954-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>166984954</t>
+  </si>
+  <si>
+    <t>07/09/2013</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>The carpet was so grimy, we didn't want to take off our shoes. Not enough parking near the rooms - all kinds of room around the back of the building. Bad planning. Not much of a choice of breakfast foods. We ate out.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r166535626-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>166535626</t>
+  </si>
+  <si>
+    <t>07/06/2013</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r165504371-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -493,9 +688,6 @@
     <t>Not enough towels for people booked. Used towels for the pool went to the frony desk to ask for more and was only given 2 towels for 4 people. When room service came they only brought 2 towels and rags every day. Other than that it was great.</t>
   </si>
   <si>
-    <t>June 2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r164954647-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -511,6 +703,33 @@
     <t>164915527</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r163023906-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>163023906</t>
+  </si>
+  <si>
+    <t>06/04/2013</t>
+  </si>
+  <si>
+    <t>Best Room n Experence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wonderful. Not full f drugs n thugs n loudness. Could actually relax and enjoy my vacation!!! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r158323485-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>158323485</t>
+  </si>
+  <si>
+    <t>04/20/2013</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r157685048-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -548,6 +767,39 @@
   </si>
   <si>
     <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r147370520-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>147370520</t>
+  </si>
+  <si>
+    <t>12/13/2012</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r132842195-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>132842195</t>
+  </si>
+  <si>
+    <t>06/26/2012</t>
+  </si>
+  <si>
+    <t>Mold &amp; Mildew problem</t>
+  </si>
+  <si>
+    <t>We've stayed in this hotel for few days in June 2012.Price is low, and very affordable for this type of a hotel.Great location, about 8 miles from the Kemah Boardwalk, and 33 miles from Galveston.There's a Walmart Super Center about 4 miles from the hotel.Lots of fast-food chains near by.Room is very clean, bathroom is clean.Housekeeping personnel are friendly, nice.The only major issue, there are mold/mildew outside &amp; inside the rooms. All the handrails outside, doors, inside the AC unit, and bathroom shower curtain had all mold &amp; mildew. This is a serious health problem, and it's a high risk of health issues for people.I would recommend to the hotel management that they buy a gallon of bleach, and mix it with water in a pump sprayer, then spray all over to these areas. After finishing spraying, wait 15 minutes, and then rinse with clean water. I would say that it will take 8 hours or less to completely treat this hotel with this solution.Please DO monitor all of these areas regularly, and treat this mold &amp; mildew problem RIGHT AWAY.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>We've stayed in this hotel for few days in June 2012.Price is low, and very affordable for this type of a hotel.Great location, about 8 miles from the Kemah Boardwalk, and 33 miles from Galveston.There's a Walmart Super Center about 4 miles from the hotel.Lots of fast-food chains near by.Room is very clean, bathroom is clean.Housekeeping personnel are friendly, nice.The only major issue, there are mold/mildew outside &amp; inside the rooms. All the handrails outside, doors, inside the AC unit, and bathroom shower curtain had all mold &amp; mildew. This is a serious health problem, and it's a high risk of health issues for people.I would recommend to the hotel management that they buy a gallon of bleach, and mix it with water in a pump sprayer, then spray all over to these areas. After finishing spraying, wait 15 minutes, and then rinse with clean water. I would say that it will take 8 hours or less to completely treat this hotel with this solution.Please DO monitor all of these areas regularly, and treat this mold &amp; mildew problem RIGHT AWAY.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r132617998-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
@@ -567,9 +819,6 @@
 The whole purpose of this trip was to go and see the Houston Space Center - which was a disappointment in itself, so overall we cant wait to continue our trip (if there are still wheel on our bikes tomorrow morning). So, you've been warned. Stay here at your own risk. The only good thing is the low rate - 50 bucks buys you a room per...If you're down in Houston, Texas, please do yourself a favor and do not stay at the Days Inn La Porte...Here is why: the service is appalling and puts this business straight onto the waiting list for going out of business. The check-in process didnt included the slightest bit of courtesy or friendliness, the doorkey handed to us didnt work and had to be re-programmed (I would rate SERVICE as zero - unfortunately tripadvisor's lowest score is a 1). The sheets were dirty. There was dirt in the corner, we found an old sandwich package next to the bed (yuck) and there was a used dental guard in the bathroom (super yuck). Then overnight, someone stole stuff from my motorcycle right in front of our room (lucky for the person that the alarm didnt go off - I would have been quick off the mark). The surrounding are is best described as 'heavy industrial' - we counted about 3 oil refineries next door and at lest the same about of chemical plants.The whole purpose of this trip was to go and see the Houston Space Center - which was a disappointment in itself, so overall we cant wait to continue our trip (if there are still wheel on our bikes tomorrow morning). So, you've been warned. Stay here at your own risk. The only good thing is the low rate - 50 bucks buys you a room per night... but then again, is it really worth it? Me thinks not...MoreShow less</t>
   </si>
   <si>
-    <t>June 2012</t>
-  </si>
-  <si>
     <t>If you're down in Houston, Texas, please do yourself a favor and do not stay at the Days Inn La Porte...
 Here is why: the service is appalling and puts this business straight onto the waiting list for going out of business. The check-in process didnt included the slightest bit of courtesy or friendliness, the doorkey handed to us didnt work and had to be re-programmed (I would rate SERVICE as zero - unfortunately tripadvisor's lowest score is a 1). The sheets were dirty. There was dirt in the corner, we found an old sandwich package next to the bed (yuck) and there was a used dental guard in the bathroom (super yuck). Then overnight, someone stole stuff from my motorcycle right in front of our room (lucky for the person that the alarm didnt go off - I would have been quick off the mark). The surrounding are is best described as 'heavy industrial' - we counted about 3 oil refineries next door and at lest the same about of chemical plants.
 The whole purpose of this trip was to go and see the Houston Space Center - which was a disappointment in itself, so overall we cant wait to continue our trip (if there are still wheel on our bikes tomorrow morning). So, you've been warned. Stay here at your own risk. The only good thing is the low rate - 50 bucks buys you a room per...If you're down in Houston, Texas, please do yourself a favor and do not stay at the Days Inn La Porte...Here is why: the service is appalling and puts this business straight onto the waiting list for going out of business. The check-in process didnt included the slightest bit of courtesy or friendliness, the doorkey handed to us didnt work and had to be re-programmed (I would rate SERVICE as zero - unfortunately tripadvisor's lowest score is a 1). The sheets were dirty. There was dirt in the corner, we found an old sandwich package next to the bed (yuck) and there was a used dental guard in the bathroom (super yuck). Then overnight, someone stole stuff from my motorcycle right in front of our room (lucky for the person that the alarm didnt go off - I would have been quick off the mark). The surrounding are is best described as 'heavy industrial' - we counted about 3 oil refineries next door and at lest the same about of chemical plants.The whole purpose of this trip was to go and see the Houston Space Center - which was a disappointment in itself, so overall we cant wait to continue our trip (if there are still wheel on our bikes tomorrow morning). So, you've been warned. Stay here at your own risk. The only good thing is the low rate - 50 bucks buys you a room per night... but then again, is it really worth it? Me thinks not...More</t>
@@ -608,6 +857,48 @@
     <t>We did not enjoy our stay one bit, the carpet left our feet black as the mold in the bathroom. The staff on duty did change us but our feet was still dark in the other room. We slept with our shoes on. Also the handrails and walkway outside has the musky smell of beer and even has broken beer glass everywhere. The staff also was very hard to understand due to accents and gave us awkward looks as we ate our breakfast.Would not recommend, especially with Family....</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r121145341-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>121145341</t>
+  </si>
+  <si>
+    <t>11/28/2011</t>
+  </si>
+  <si>
+    <t>Gets it done</t>
+  </si>
+  <si>
+    <t>If you are looking for a clean and comfortable place to stay with great customer service at a great price this is your hotel. My family and I stayed here over the Thanksgiving weekend while visiting Galveston and San Jacinto State Park. The room was more than adequate for our needs and we would definitely stay there again. Other that lots of TV channels and very good wireless internet access everything else was pretty standard.The one downside was the breakfast was VERY limited but there are lots of places to eat nearby so no biggie. I am also compelled to brag on their customer service. The refrigerator in our room was not working properly and only barely cooled our drinks and milk at best. I asked the manager on duty (Bill) if we could have our refrigerator switched out and he said he would take care of it. Not only did we have an ice cold refrigerator in our room when we came back but he went through the trouble of actually switching out the contents of the refrigerator from one to the other. Believe me for the money, the service, and the accommodations you won't regret it. The Fred Hartmann bridge just down the road is one of the first sites you should go to if you have the chance. Sylvan Park just around the corner is a must see as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>If you are looking for a clean and comfortable place to stay with great customer service at a great price this is your hotel. My family and I stayed here over the Thanksgiving weekend while visiting Galveston and San Jacinto State Park. The room was more than adequate for our needs and we would definitely stay there again. Other that lots of TV channels and very good wireless internet access everything else was pretty standard.The one downside was the breakfast was VERY limited but there are lots of places to eat nearby so no biggie. I am also compelled to brag on their customer service. The refrigerator in our room was not working properly and only barely cooled our drinks and milk at best. I asked the manager on duty (Bill) if we could have our refrigerator switched out and he said he would take care of it. Not only did we have an ice cold refrigerator in our room when we came back but he went through the trouble of actually switching out the contents of the refrigerator from one to the other. Believe me for the money, the service, and the accommodations you won't regret it. The Fred Hartmann bridge just down the road is one of the first sites you should go to if you have the chance. Sylvan Park just around the corner is a must see as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r119356663-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>119356663</t>
+  </si>
+  <si>
+    <t>10/16/2011</t>
+  </si>
+  <si>
+    <t>60-40 good and questionable</t>
+  </si>
+  <si>
+    <t>Never really experienced such good things and bad things in tandem at a hotel before!  I travel alot and stay in both budget and 5 star properties.  This is definitely a 2.5 but is trying to be at least a 3 star.  Here's the scoop:  when there were issues, the manager (Bala Siva) responded quickly, efficiently, friendly and effectively.  When the light bulb was out in the room and we were given only 1 towel and nothing else by the maid, the manager immediately and personally delivered the towels and changed the lightbulb himself.  When the maid decided to ignore the "do not disturb" sign on the door 2 out of 3 mornings, knocking incessantly and opening the door anyway, the manager personally spoke with her about it.  (BTW, if you think that putting the "do not disturb" sign on your door will stop the maid from coming in while you're not there, don't bet on it.  She's going to come in anyway whether you like it or not and completely disregard your wishes.)  When the coffee ran out, etc, the manager was right there taking care of it.  However, the worst part about this hotel was one particular employee.  On day 2, in the afternoon, I went to the front office to request an ice bucket and the code to log in to the router.  The employee's name was Bal (the brother of the manager).  What a rude, intentionally...Never really experienced such good things and bad things in tandem at a hotel before!  I travel alot and stay in both budget and 5 star properties.  This is definitely a 2.5 but is trying to be at least a 3 star.  Here's the scoop:  when there were issues, the manager (Bala Siva) responded quickly, efficiently, friendly and effectively.  When the light bulb was out in the room and we were given only 1 towel and nothing else by the maid, the manager immediately and personally delivered the towels and changed the lightbulb himself.  When the maid decided to ignore the "do not disturb" sign on the door 2 out of 3 mornings, knocking incessantly and opening the door anyway, the manager personally spoke with her about it.  (BTW, if you think that putting the "do not disturb" sign on your door will stop the maid from coming in while you're not there, don't bet on it.  She's going to come in anyway whether you like it or not and completely disregard your wishes.)  When the coffee ran out, etc, the manager was right there taking care of it.  However, the worst part about this hotel was one particular employee.  On day 2, in the afternoon, I went to the front office to request an ice bucket and the code to log in to the router.  The employee's name was Bal (the brother of the manager).  What a rude, intentionally disrespectful jerk!  So, I asked for an ice bucket and he gave me a blank stare and said he didn't know what that was.  I explained that I couldn't carry the ice up in my hands.  He reluctantly goes into the back office and brings me a filthy ice bucket with something stuck inside of it and a hair.  I looked at him and explained it was dirty and could I please have a plastic liner.  He rolls his eyes at me and said he didn't know what that was.  I explained and asked if I could have one.  He goes to the back and brings me a giant trashbag.  Ok, I get the point:  you don't want to help me and you play the -- card to avoid helping me.  But, then....he disrespects an elderly man in his 70s!  The man came to him at the desk, while I was waiting, and asked if Bal knew the directions to get to a nearby road.  He replies he doesn't know and quote "just go use the computer over there".  The ELDERLY man looks at him and says he doesn't know how to use it and Bal rudely replies quote "just use Google maps".  ARE YOU SERIOUS??!!  This man obviously doesn't know what to do and is totally confused.  So, I whip out my Android and show him the map and write down 2 sets of directions for him on a piece of paper that I had to ask Bal for TWICE.  He finally rolled his eyes and tore off a sheet of hotel paper and gave it to me.  The whole time Bal is standing there with a disrespectful, frustrated look on his face.  The elderly man thanked me and left.  I then asked Bal if I could have a sheet of printer paper for the computer so I could print something out and even asked him how much so I could pay for the paper.  He rolled his eyes and said that the computer doesn't have a printer.  To which I replied, yes it does.  I got stern with him and said "I can see you don't want to help me but can I just please have a piece of paper?"  He brought me 6 sheets in an act of sarcasm.  The next day, I spoke with the manager about what happened and he explained to me that Bal was his brother.  He said he would talk to him.  Ok, no problem.  Well, this morning, we go to breakfast and Bal is there.  The scowl on his face when we walked in would have set fire to a grill.  I ignore him (as any good teacher is a pro at).  I go to put on the waffles and the big bottle of syrup is missing.  I leaned over and asked if we could have some syrup.  He looked at me and then back at his computer, ignoring me.  So, I went ahead with my breakfast.  After I got it all laid out, I walked right up to him at the computer and got close and said "I know you're ignoring me but can we please have some syrup?"  To which he looked up briefly and said "we're out".  I knew this was a lie.  I ate my waffle with no syrup.  Then, a moment later he comes bringing me a handful of butter.  I said thanks but no thanks.  We're watching CNN morning news and the only ones in there.  Suddenly, from the front desk computer comes blaring Bollywood singing and then a long news cast in Hindi.  I went over to the tv and turned it up.  Bal turns up the computer.  I turn up the tv again and Bal turns up the computer again.  So, I let him have his way and ate while staring at a tv I couldn't hear.  Until the manager came in to find out what was going on.  Bal INSTANTLY turned off the computer sound and smiled at him.  I called the manager over again and told him that, what he sees with Bal is one thing, and, with customers, he's an ******* and that he needs to be fired.  I explained what happened with the syrup, computer and tv and he said he would look into it and speak with the owner of the hotel about firing him, which is probably another member of the family-owned business, which will result in nothing.  Then, the manager finds and puts out the SAME bottle of partially used syrup that we used yesterday that Bal refused to give to us.  Bal is very vindictive to hotel guests who tell on him when he refuses to do anything whatsoever and intentionally provides terrible, sarcastic, disrespectful service to get back at them.This is a nice little hotel, convienently situated 2 minutes from Sylvan Beach Park, which is free and totally relaxing.  16 minutes directly down the hwy from Kemah and right next to Kroger, restaurants, etc.  I wouldn't let this vindictive employee keep me from here, as the other manager and employees (except for the passive aggressive maid) have been wonderful.  However, I am going to give this hotel a lower rating because of the repeated abuse of customerS (not just me) by one employee and that hotel basics like lights, towels, ice bucket and a jammed door weren't met.  I would recommend this hotel for working people, those on a strict budget ($50 a night) those who customer service isn't an issue and who are not staying long.  I would not recommend this hotel for those with kids, who need good customer service while staying in the area and who must have basic needs met.  As for the hotel itself, the microwave and refrigerator were a godsend for our food while staying here and eating out of a cooler everywhere we went.  There was no pool that I could see, contradicting the Expedia website listing.  The room was ample.  The bed terrible.  Cleaniless was good but the sofa chairs stank like sweaty working men.  Don't let the surroundings make you question the hotel.  It seemed to be very safe even though there derelict buildings and shuttered businesses all around.  The active suburban businesses are a stone's throw off the highway and that is good for the hotel.  Email me if you have any further questions.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>Never really experienced such good things and bad things in tandem at a hotel before!  I travel alot and stay in both budget and 5 star properties.  This is definitely a 2.5 but is trying to be at least a 3 star.  Here's the scoop:  when there were issues, the manager (Bala Siva) responded quickly, efficiently, friendly and effectively.  When the light bulb was out in the room and we were given only 1 towel and nothing else by the maid, the manager immediately and personally delivered the towels and changed the lightbulb himself.  When the maid decided to ignore the "do not disturb" sign on the door 2 out of 3 mornings, knocking incessantly and opening the door anyway, the manager personally spoke with her about it.  (BTW, if you think that putting the "do not disturb" sign on your door will stop the maid from coming in while you're not there, don't bet on it.  She's going to come in anyway whether you like it or not and completely disregard your wishes.)  When the coffee ran out, etc, the manager was right there taking care of it.  However, the worst part about this hotel was one particular employee.  On day 2, in the afternoon, I went to the front office to request an ice bucket and the code to log in to the router.  The employee's name was Bal (the brother of the manager).  What a rude, intentionally...Never really experienced such good things and bad things in tandem at a hotel before!  I travel alot and stay in both budget and 5 star properties.  This is definitely a 2.5 but is trying to be at least a 3 star.  Here's the scoop:  when there were issues, the manager (Bala Siva) responded quickly, efficiently, friendly and effectively.  When the light bulb was out in the room and we were given only 1 towel and nothing else by the maid, the manager immediately and personally delivered the towels and changed the lightbulb himself.  When the maid decided to ignore the "do not disturb" sign on the door 2 out of 3 mornings, knocking incessantly and opening the door anyway, the manager personally spoke with her about it.  (BTW, if you think that putting the "do not disturb" sign on your door will stop the maid from coming in while you're not there, don't bet on it.  She's going to come in anyway whether you like it or not and completely disregard your wishes.)  When the coffee ran out, etc, the manager was right there taking care of it.  However, the worst part about this hotel was one particular employee.  On day 2, in the afternoon, I went to the front office to request an ice bucket and the code to log in to the router.  The employee's name was Bal (the brother of the manager).  What a rude, intentionally disrespectful jerk!  So, I asked for an ice bucket and he gave me a blank stare and said he didn't know what that was.  I explained that I couldn't carry the ice up in my hands.  He reluctantly goes into the back office and brings me a filthy ice bucket with something stuck inside of it and a hair.  I looked at him and explained it was dirty and could I please have a plastic liner.  He rolls his eyes at me and said he didn't know what that was.  I explained and asked if I could have one.  He goes to the back and brings me a giant trashbag.  Ok, I get the point:  you don't want to help me and you play the -- card to avoid helping me.  But, then....he disrespects an elderly man in his 70s!  The man came to him at the desk, while I was waiting, and asked if Bal knew the directions to get to a nearby road.  He replies he doesn't know and quote "just go use the computer over there".  The ELDERLY man looks at him and says he doesn't know how to use it and Bal rudely replies quote "just use Google maps".  ARE YOU SERIOUS??!!  This man obviously doesn't know what to do and is totally confused.  So, I whip out my Android and show him the map and write down 2 sets of directions for him on a piece of paper that I had to ask Bal for TWICE.  He finally rolled his eyes and tore off a sheet of hotel paper and gave it to me.  The whole time Bal is standing there with a disrespectful, frustrated look on his face.  The elderly man thanked me and left.  I then asked Bal if I could have a sheet of printer paper for the computer so I could print something out and even asked him how much so I could pay for the paper.  He rolled his eyes and said that the computer doesn't have a printer.  To which I replied, yes it does.  I got stern with him and said "I can see you don't want to help me but can I just please have a piece of paper?"  He brought me 6 sheets in an act of sarcasm.  The next day, I spoke with the manager about what happened and he explained to me that Bal was his brother.  He said he would talk to him.  Ok, no problem.  Well, this morning, we go to breakfast and Bal is there.  The scowl on his face when we walked in would have set fire to a grill.  I ignore him (as any good teacher is a pro at).  I go to put on the waffles and the big bottle of syrup is missing.  I leaned over and asked if we could have some syrup.  He looked at me and then back at his computer, ignoring me.  So, I went ahead with my breakfast.  After I got it all laid out, I walked right up to him at the computer and got close and said "I know you're ignoring me but can we please have some syrup?"  To which he looked up briefly and said "we're out".  I knew this was a lie.  I ate my waffle with no syrup.  Then, a moment later he comes bringing me a handful of butter.  I said thanks but no thanks.  We're watching CNN morning news and the only ones in there.  Suddenly, from the front desk computer comes blaring Bollywood singing and then a long news cast in Hindi.  I went over to the tv and turned it up.  Bal turns up the computer.  I turn up the tv again and Bal turns up the computer again.  So, I let him have his way and ate while staring at a tv I couldn't hear.  Until the manager came in to find out what was going on.  Bal INSTANTLY turned off the computer sound and smiled at him.  I called the manager over again and told him that, what he sees with Bal is one thing, and, with customers, he's an ******* and that he needs to be fired.  I explained what happened with the syrup, computer and tv and he said he would look into it and speak with the owner of the hotel about firing him, which is probably another member of the family-owned business, which will result in nothing.  Then, the manager finds and puts out the SAME bottle of partially used syrup that we used yesterday that Bal refused to give to us.  Bal is very vindictive to hotel guests who tell on him when he refuses to do anything whatsoever and intentionally provides terrible, sarcastic, disrespectful service to get back at them.This is a nice little hotel, convienently situated 2 minutes from Sylvan Beach Park, which is free and totally relaxing.  16 minutes directly down the hwy from Kemah and right next to Kroger, restaurants, etc.  I wouldn't let this vindictive employee keep me from here, as the other manager and employees (except for the passive aggressive maid) have been wonderful.  However, I am going to give this hotel a lower rating because of the repeated abuse of customerS (not just me) by one employee and that hotel basics like lights, towels, ice bucket and a jammed door weren't met.  I would recommend this hotel for working people, those on a strict budget ($50 a night) those who customer service isn't an issue and who are not staying long.  I would not recommend this hotel for those with kids, who need good customer service while staying in the area and who must have basic needs met.  As for the hotel itself, the microwave and refrigerator were a godsend for our food while staying here and eating out of a cooler everywhere we went.  There was no pool that I could see, contradicting the Expedia website listing.  The room was ample.  The bed terrible.  Cleaniless was good but the sofa chairs stank like sweaty working men.  Don't let the surroundings make you question the hotel.  It seemed to be very safe even though there derelict buildings and shuttered businesses all around.  The active suburban businesses are a stone's throw off the highway and that is good for the hotel.  Email me if you have any further questions.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r117057148-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -657,6 +948,33 @@
   </si>
   <si>
     <t>The beds were awesome.  Slept like a baby.  Was kinda scary because of the price you just never know what your going to get but I will say I would stay there again.  Breakfast says hot and that means typicall waffles and oatmeal.  Wifi worked half the time.  Pool was ok, nothing impressive.  Overall I say great place for a great price.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d73395-r68891110-Americas_Best_Value_Inn_Suites_LaPorte_Houston-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>68891110</t>
+  </si>
+  <si>
+    <t>06/27/2010</t>
+  </si>
+  <si>
+    <t>Wonderful Wedding Trip</t>
+  </si>
+  <si>
+    <t>Visited League City for the first time with my wife, we had a great time staying at this hotel. First of all the Manager Charrissa went above and beyond in making sure that our stay was pleasant, the breakfast was always hot and tasty(although you can't go wrong with waffle machine) The room servive was great, they did all the things that we asked and even gave us extra towels and knick knacks when we requested them. the location is great as well, there are fast food places all around, a great seafood restaurant a block away, and the Kema boardwalk is 10-15minutes up the road. We were even given a free upgrade on our room as well..Best of all, it was quiet the 3 nights that we stayed there..Can't wait to go backMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>FRONTDESK705, Front Office Manager at Americas Best Value Inn &amp; Suites- LaPorte / Houston, responded to this reviewResponded October 1, 2010</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2010</t>
+  </si>
+  <si>
+    <t>Visited League City for the first time with my wife, we had a great time staying at this hotel. First of all the Manager Charrissa went above and beyond in making sure that our stay was pleasant, the breakfast was always hot and tasty(although you can't go wrong with waffle machine) The room servive was great, they did all the things that we asked and even gave us extra towels and knick knacks when we requested them. the location is great as well, there are fast food places all around, a great seafood restaurant a block away, and the Kema boardwalk is 10-15minutes up the road. We were even given a free upgrade on our room as well..Best of all, it was quiet the 3 nights that we stayed there..Can't wait to go backMore</t>
   </si>
 </sst>
 </file>
@@ -1191,7 +1509,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1199,21 +1517,15 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="n">
-        <v>5</v>
-      </c>
+      <c r="P2" t="s"/>
       <c r="Q2" t="n">
-        <v>5</v>
-      </c>
-      <c r="R2" t="n">
-        <v>5</v>
-      </c>
-      <c r="S2" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -1221,7 +1533,7 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -1237,7 +1549,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1246,48 +1558,44 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s"/>
-      <c r="L3" t="s">
-        <v>57</v>
-      </c>
+      <c r="L3" t="s"/>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N3" t="s">
         <v>58</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
-      <c r="Y3" t="s">
-        <v>59</v>
-      </c>
+      <c r="Y3" t="s"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1316,39 +1624,45 @@
       <c r="J4" t="s">
         <v>62</v>
       </c>
-      <c r="K4" t="s"/>
-      <c r="L4" t="s"/>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
-      <c r="Y4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1363,7 +1677,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1372,41 +1686,39 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
         <v>66</v>
       </c>
-      <c r="J5" t="s">
-        <v>67</v>
-      </c>
-      <c r="K5" t="s">
-        <v>68</v>
-      </c>
-      <c r="L5" t="s">
-        <v>69</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O5" t="s">
-        <v>64</v>
-      </c>
       <c r="P5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1414,7 +1726,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -1430,7 +1742,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1439,50 +1751,44 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
-      </c>
-      <c r="K6" t="s">
-        <v>74</v>
-      </c>
-      <c r="L6" t="s">
         <v>75</v>
       </c>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s"/>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N6" t="s">
         <v>76</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
-      <c r="Y6" t="s">
-        <v>75</v>
-      </c>
+      <c r="Y6" t="s"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1511,39 +1817,39 @@
       <c r="J7" t="s">
         <v>79</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
         <v>80</v>
       </c>
-      <c r="L7" t="s">
+      <c r="O7" t="s">
         <v>81</v>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>82</v>
-      </c>
-      <c r="O7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
       <c r="R7" t="n">
-        <v>2</v>
-      </c>
-      <c r="S7" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
-      <c r="Y7" t="s">
-        <v>83</v>
-      </c>
+      <c r="Y7" t="s"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1558,53 +1864,55 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" t="s">
         <v>84</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>85</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>86</v>
       </c>
-      <c r="K8" t="s"/>
-      <c r="L8" t="s"/>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
         <v>87</v>
       </c>
       <c r="O8" t="s">
-        <v>64</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="n">
-        <v>4</v>
-      </c>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R8" t="s"/>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
-      <c r="Y8" t="s"/>
+      <c r="Y8" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1619,7 +1927,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1628,25 +1936,25 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O9" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -1670,7 +1978,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10">
@@ -1700,39 +2008,45 @@
       <c r="J10" t="s">
         <v>97</v>
       </c>
-      <c r="K10" t="s"/>
-      <c r="L10" t="s"/>
+      <c r="K10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" t="s">
+        <v>99</v>
+      </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O10" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
-      <c r="Y10" t="s"/>
+      <c r="Y10" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1747,7 +2061,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1756,41 +2070,35 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>106</v>
+      </c>
+      <c r="O11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
         <v>2</v>
       </c>
-      <c r="N11" t="s">
-        <v>104</v>
-      </c>
-      <c r="O11" t="s">
-        <v>94</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1</v>
-      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1798,7 +2106,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12">
@@ -1814,7 +2122,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1823,44 +2131,44 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J12" t="s">
-        <v>108</v>
-      </c>
-      <c r="K12" t="s"/>
-      <c r="L12" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="K12" t="s">
+        <v>111</v>
+      </c>
+      <c r="L12" t="s">
+        <v>112</v>
+      </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="n">
         <v>2</v>
       </c>
-      <c r="R12" t="n">
-        <v>3</v>
-      </c>
-      <c r="S12" t="n">
-        <v>3</v>
-      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
-      <c r="Y12" t="s"/>
+      <c r="Y12" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1875,7 +2183,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1884,50 +2192,44 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="J13" t="s">
-        <v>112</v>
-      </c>
-      <c r="K13" t="s">
-        <v>113</v>
-      </c>
-      <c r="L13" t="s">
-        <v>114</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
-      <c r="Y13" t="s">
-        <v>116</v>
-      </c>
+      <c r="Y13" t="s"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1942,7 +2244,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -1951,17 +2253,13 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J14" t="s">
-        <v>119</v>
-      </c>
-      <c r="K14" t="s">
-        <v>120</v>
-      </c>
-      <c r="L14" t="s">
         <v>121</v>
       </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s"/>
       <c r="M14" t="n">
         <v>4</v>
       </c>
@@ -1969,19 +2267,19 @@
         <v>122</v>
       </c>
       <c r="O14" t="s">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="P14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="n">
         <v>4</v>
       </c>
       <c r="R14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
@@ -1992,9 +2290,7 @@
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
-      <c r="Y14" t="s">
-        <v>124</v>
-      </c>
+      <c r="Y14" t="s"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2009,50 +2305,50 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" t="s">
         <v>125</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="K15" t="s">
         <v>126</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
         <v>127</v>
       </c>
-      <c r="K15" t="s">
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
         <v>128</v>
       </c>
-      <c r="L15" t="s">
-        <v>129</v>
-      </c>
-      <c r="M15" t="n">
-        <v>2</v>
-      </c>
-      <c r="N15" t="s">
-        <v>122</v>
-      </c>
       <c r="O15" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="P15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2060,7 +2356,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16">
@@ -2076,59 +2372,53 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>130</v>
+      </c>
+      <c r="J16" t="s">
         <v>131</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s"/>
+      <c r="L16" t="s"/>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
         <v>132</v>
       </c>
-      <c r="J16" t="s">
-        <v>133</v>
-      </c>
-      <c r="K16" t="s">
-        <v>134</v>
-      </c>
-      <c r="L16" t="s">
-        <v>135</v>
-      </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>136</v>
-      </c>
       <c r="O16" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="P16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
-      <c r="Y16" t="s">
-        <v>135</v>
-      </c>
+      <c r="Y16" t="s"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2143,7 +2433,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2152,37 +2442,37 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J17" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K17" t="s"/>
       <c r="L17" t="s"/>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="O17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2204,7 +2494,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2213,10 +2503,10 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J18" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K18" t="s"/>
       <c r="L18" t="s"/>
@@ -2224,26 +2514,26 @@
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="O18" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
       </c>
       <c r="Q18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2265,46 +2555,46 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>140</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>141</v>
+      </c>
+      <c r="J19" t="s">
+        <v>142</v>
+      </c>
+      <c r="K19" t="s">
+        <v>143</v>
+      </c>
+      <c r="L19" t="s">
         <v>144</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
         <v>145</v>
       </c>
-      <c r="J19" t="s">
-        <v>146</v>
-      </c>
-      <c r="K19" t="s">
-        <v>147</v>
-      </c>
-      <c r="L19" t="s">
-        <v>148</v>
-      </c>
-      <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
-        <v>149</v>
-      </c>
       <c r="O19" t="s">
-        <v>150</v>
+        <v>53</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
       </c>
       <c r="Q19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
@@ -2316,7 +2606,7 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20">
@@ -2332,7 +2622,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2341,50 +2631,44 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="J20" t="s">
-        <v>154</v>
-      </c>
-      <c r="K20" t="s">
-        <v>155</v>
-      </c>
-      <c r="L20" t="s">
-        <v>156</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s"/>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="P20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
-      <c r="Y20" t="s">
-        <v>156</v>
-      </c>
+      <c r="Y20" t="s"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2399,7 +2683,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2408,39 +2692,41 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="J21" t="s">
-        <v>160</v>
-      </c>
-      <c r="K21" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="K21" t="s">
+        <v>154</v>
+      </c>
       <c r="L21" t="s">
-        <v>57</v>
+        <v>155</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2448,7 +2734,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>59</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22">
@@ -2464,7 +2750,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2473,7 +2759,7 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J22" t="s">
         <v>160</v>
@@ -2481,29 +2767,29 @@
       <c r="K22" t="s"/>
       <c r="L22" t="s"/>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O22" t="s">
-        <v>150</v>
+        <v>53</v>
       </c>
       <c r="P22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2525,55 +2811,53 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>162</v>
+      </c>
+      <c r="J23" t="s">
         <v>163</v>
       </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="K23" t="s"/>
+      <c r="L23" t="s"/>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
         <v>164</v>
       </c>
-      <c r="J23" t="s">
-        <v>165</v>
-      </c>
-      <c r="K23" t="s">
-        <v>166</v>
-      </c>
-      <c r="L23" t="s">
-        <v>167</v>
-      </c>
-      <c r="M23" t="n">
-        <v>5</v>
-      </c>
-      <c r="N23" t="s"/>
-      <c r="O23" t="s"/>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
       <c r="P23" t="n">
         <v>5</v>
       </c>
       <c r="Q23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
-      <c r="Y23" t="s">
-        <v>167</v>
-      </c>
+      <c r="Y23" t="s"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2588,53 +2872,59 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>165</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>166</v>
+      </c>
+      <c r="J24" t="s">
+        <v>167</v>
+      </c>
+      <c r="K24" t="s">
         <v>168</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="L24" t="s">
         <v>169</v>
       </c>
-      <c r="J24" t="s">
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
         <v>170</v>
       </c>
-      <c r="K24" t="s"/>
-      <c r="L24" t="s"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="s">
-        <v>171</v>
-      </c>
       <c r="O24" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R24" t="n">
         <v>3</v>
       </c>
       <c r="S24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
-      <c r="Y24" t="s"/>
+      <c r="Y24" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2663,39 +2953,45 @@
       <c r="J25" t="s">
         <v>174</v>
       </c>
-      <c r="K25" t="s"/>
-      <c r="L25" t="s"/>
+      <c r="K25" t="s">
+        <v>175</v>
+      </c>
+      <c r="L25" t="s">
+        <v>176</v>
+      </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="O25" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="P25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
-      <c r="Y25" t="s"/>
+      <c r="Y25" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2710,7 +3006,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -2719,41 +3015,41 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J26" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O26" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="P26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2777,50 +3073,50 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
+        <v>184</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>185</v>
+      </c>
+      <c r="J27" t="s">
+        <v>186</v>
+      </c>
+      <c r="K27" t="s">
+        <v>187</v>
+      </c>
+      <c r="L27" t="s">
+        <v>188</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
         <v>183</v>
-      </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" t="s">
-        <v>184</v>
-      </c>
-      <c r="J27" t="s">
-        <v>185</v>
-      </c>
-      <c r="K27" t="s">
-        <v>186</v>
-      </c>
-      <c r="L27" t="s">
-        <v>187</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="s">
-        <v>181</v>
       </c>
       <c r="O27" t="s">
         <v>53</v>
       </c>
       <c r="P27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2828,7 +3124,7 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28">
@@ -2844,7 +3140,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -2853,46 +3149,44 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J28" t="s">
-        <v>191</v>
-      </c>
-      <c r="K28" t="s">
         <v>192</v>
       </c>
-      <c r="L28" t="s">
+      <c r="K28" t="s"/>
+      <c r="L28" t="s"/>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
         <v>193</v>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="s"/>
-      <c r="O28" t="s"/>
+      <c r="O28" t="s">
+        <v>66</v>
+      </c>
       <c r="P28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
-      <c r="Y28" t="s">
-        <v>193</v>
-      </c>
+      <c r="Y28" t="s"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2921,26 +3215,26 @@
       <c r="J29" t="s">
         <v>196</v>
       </c>
-      <c r="K29" t="s">
-        <v>197</v>
-      </c>
-      <c r="L29" t="s">
-        <v>198</v>
-      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s"/>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="O29" t="s">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
       </c>
-      <c r="Q29" t="s"/>
-      <c r="R29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
       <c r="S29" t="n">
         <v>5</v>
       </c>
@@ -2953,9 +3247,7 @@
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
-      <c r="Y29" t="s">
-        <v>198</v>
-      </c>
+      <c r="Y29" t="s"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2970,7 +3262,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -2979,34 +3271,30 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J30" t="s">
-        <v>202</v>
-      </c>
-      <c r="K30" t="s">
-        <v>203</v>
-      </c>
-      <c r="L30" t="s">
-        <v>204</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s"/>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="O30" t="s">
         <v>53</v>
       </c>
       <c r="P30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -3020,9 +3308,7 @@
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
-      <c r="Y30" t="s">
-        <v>204</v>
-      </c>
+      <c r="Y30" t="s"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3037,7 +3323,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3046,25 +3332,25 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="J31" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="K31" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="L31" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
         <v>205</v>
       </c>
       <c r="O31" t="s">
-        <v>123</v>
+        <v>206</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -3073,14 +3359,14 @@
         <v>4</v>
       </c>
       <c r="R31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3088,7 +3374,1370 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>208</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>209</v>
+      </c>
+      <c r="J32" t="s">
         <v>210</v>
+      </c>
+      <c r="K32" t="s">
+        <v>211</v>
+      </c>
+      <c r="L32" t="s">
+        <v>212</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>205</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>213</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>214</v>
+      </c>
+      <c r="J33" t="s">
+        <v>215</v>
+      </c>
+      <c r="K33" t="s"/>
+      <c r="L33" t="s"/>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>216</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>217</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>218</v>
+      </c>
+      <c r="J34" t="s">
+        <v>219</v>
+      </c>
+      <c r="K34" t="s">
+        <v>220</v>
+      </c>
+      <c r="L34" t="s">
+        <v>221</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>216</v>
+      </c>
+      <c r="O34" t="s">
+        <v>66</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>222</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>223</v>
+      </c>
+      <c r="J35" t="s">
+        <v>224</v>
+      </c>
+      <c r="K35" t="s"/>
+      <c r="L35" t="s">
+        <v>70</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>216</v>
+      </c>
+      <c r="O35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>225</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>226</v>
+      </c>
+      <c r="J36" t="s">
+        <v>224</v>
+      </c>
+      <c r="K36" t="s"/>
+      <c r="L36" t="s"/>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>216</v>
+      </c>
+      <c r="O36" t="s">
+        <v>206</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>227</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>228</v>
+      </c>
+      <c r="J37" t="s">
+        <v>229</v>
+      </c>
+      <c r="K37" t="s">
+        <v>230</v>
+      </c>
+      <c r="L37" t="s">
+        <v>231</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>216</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>232</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>233</v>
+      </c>
+      <c r="J38" t="s">
+        <v>234</v>
+      </c>
+      <c r="K38" t="s"/>
+      <c r="L38" t="s"/>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>235</v>
+      </c>
+      <c r="O38" t="s">
+        <v>206</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>236</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>237</v>
+      </c>
+      <c r="J39" t="s">
+        <v>238</v>
+      </c>
+      <c r="K39" t="s">
+        <v>239</v>
+      </c>
+      <c r="L39" t="s">
+        <v>240</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>241</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>242</v>
+      </c>
+      <c r="J40" t="s">
+        <v>243</v>
+      </c>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s"/>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>244</v>
+      </c>
+      <c r="O40" t="s">
+        <v>59</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>245</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>246</v>
+      </c>
+      <c r="J41" t="s">
+        <v>247</v>
+      </c>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s"/>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>248</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>249</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>250</v>
+      </c>
+      <c r="J42" t="s">
+        <v>251</v>
+      </c>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s">
+        <v>70</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>252</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>254</v>
+      </c>
+      <c r="J43" t="s">
+        <v>255</v>
+      </c>
+      <c r="K43" t="s">
+        <v>256</v>
+      </c>
+      <c r="L43" t="s">
+        <v>257</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>258</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>260</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>261</v>
+      </c>
+      <c r="J44" t="s">
+        <v>262</v>
+      </c>
+      <c r="K44" t="s">
+        <v>263</v>
+      </c>
+      <c r="L44" t="s">
+        <v>264</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>258</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>266</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>267</v>
+      </c>
+      <c r="J45" t="s">
+        <v>268</v>
+      </c>
+      <c r="K45" t="s">
+        <v>269</v>
+      </c>
+      <c r="L45" t="s">
+        <v>270</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>258</v>
+      </c>
+      <c r="O45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>272</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>273</v>
+      </c>
+      <c r="J46" t="s">
+        <v>274</v>
+      </c>
+      <c r="K46" t="s">
+        <v>275</v>
+      </c>
+      <c r="L46" t="s">
+        <v>276</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>277</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>278</v>
+      </c>
+      <c r="J47" t="s">
+        <v>279</v>
+      </c>
+      <c r="K47" t="s">
+        <v>280</v>
+      </c>
+      <c r="L47" t="s">
+        <v>281</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>282</v>
+      </c>
+      <c r="O47" t="s">
+        <v>66</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>284</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>285</v>
+      </c>
+      <c r="J48" t="s">
+        <v>286</v>
+      </c>
+      <c r="K48" t="s">
+        <v>287</v>
+      </c>
+      <c r="L48" t="s">
+        <v>288</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>289</v>
+      </c>
+      <c r="O48" t="s">
+        <v>66</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>291</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>292</v>
+      </c>
+      <c r="J49" t="s">
+        <v>293</v>
+      </c>
+      <c r="K49" t="s">
+        <v>294</v>
+      </c>
+      <c r="L49" t="s">
+        <v>295</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>296</v>
+      </c>
+      <c r="O49" t="s">
+        <v>81</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>297</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>298</v>
+      </c>
+      <c r="J50" t="s">
+        <v>299</v>
+      </c>
+      <c r="K50" t="s">
+        <v>300</v>
+      </c>
+      <c r="L50" t="s">
+        <v>301</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>302</v>
+      </c>
+      <c r="O50" t="s">
+        <v>66</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>303</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>304</v>
+      </c>
+      <c r="J51" t="s">
+        <v>305</v>
+      </c>
+      <c r="K51" t="s">
+        <v>306</v>
+      </c>
+      <c r="L51" t="s">
+        <v>307</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>302</v>
+      </c>
+      <c r="O51" t="s">
+        <v>81</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>32713</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>308</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>309</v>
+      </c>
+      <c r="J52" t="s">
+        <v>310</v>
+      </c>
+      <c r="K52" t="s">
+        <v>311</v>
+      </c>
+      <c r="L52" t="s">
+        <v>312</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>313</v>
+      </c>
+      <c r="O52" t="s">
+        <v>59</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>314</v>
+      </c>
+      <c r="X52" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
